--- a/outputFile/lhel3.xlsx
+++ b/outputFile/lhel3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lhel_only</t>
+          <t>lhel_v3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhel_a3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lhel_j3</t>
         </is>
       </c>
     </row>
@@ -446,7 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.558139534883721, 14], [0.4736842105263158, 12], [0.33333333333333337, 8]]</t>
+          <t>[0.5853658536585366, 12]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.4736842105263158, 12]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.30303030303030304, 11]</t>
         </is>
       </c>
     </row>
@@ -456,7 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.42424242424242425, 9], [0.15384615384615383, 7], [0.0909090909090909, 4]]</t>
+          <t>[0.35714285714285715, 6]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.2857142857142857, 7]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.15999999999999998, 6]</t>
         </is>
       </c>
     </row>
@@ -466,7 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.15999999999999998, 6], [0.0909090909090909, 4], [0, 3]]</t>
+          <t>[0, 5]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.1739130434782609, 4]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.0909090909090909, 4]</t>
         </is>
       </c>
     </row>
